--- a/out/CE/FigA_20.xlsx
+++ b/out/CE/FigA_20.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD71B62A-AF04-450D-8088-929D8DECAD56}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.71758</v>
+        <v>0.73319999999999996</v>
       </c>
       <c r="B1">
-        <v>0.70025999999999999</v>
+        <v>0.74478</v>
       </c>
       <c r="C1">
-        <v>0.70891999999999999</v>
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="D1">
+        <v>0.72541999999999995</v>
+      </c>
+      <c r="E1">
+        <v>0.74717999999999996</v>
+      </c>
+      <c r="F1">
+        <v>0.74763999999999997</v>
+      </c>
+      <c r="G1">
+        <v>0.73848000000000003</v>
+      </c>
+      <c r="H1">
+        <v>0.69947999999999999</v>
+      </c>
+      <c r="I1">
+        <v>0.75287999999999999</v>
+      </c>
+      <c r="J1">
+        <v>0.74672000000000005</v>
+      </c>
+      <c r="K1">
+        <v>0.73575999999999997</v>
+      </c>
+      <c r="L1">
+        <v>0.71604000000000001</v>
+      </c>
+      <c r="M1">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="N1">
+        <v>0.73468</v>
+      </c>
+      <c r="O1">
+        <v>0.73594000000000004</v>
+      </c>
+      <c r="P1">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="Q1">
+        <v>0.71521999999999997</v>
+      </c>
+      <c r="R1">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="S1">
+        <v>0.75024000000000002</v>
+      </c>
+      <c r="T1">
+        <v>0.73595999999999995</v>
+      </c>
+      <c r="U1">
+        <v>0.71579999999999999</v>
+      </c>
+      <c r="V1">
+        <v>0.75116000000000005</v>
+      </c>
+      <c r="W1">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="X1">
+        <v>0.73741999999999996</v>
+      </c>
+      <c r="Y1">
+        <v>0.72331999999999996</v>
+      </c>
+      <c r="Z1">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="AA1">
+        <v>0.70509999999999995</v>
+      </c>
+      <c r="AB1">
+        <v>0.73455999999999999</v>
+      </c>
+      <c r="AC1">
+        <v>0.72430000000000005</v>
+      </c>
+      <c r="AD1">
+        <v>0.71372000000000002</v>
+      </c>
+      <c r="AE1">
+        <v>0.74463999999999997</v>
+      </c>
+      <c r="AF1">
+        <v>0.73373999999999995</v>
+      </c>
+      <c r="AG1">
+        <v>0.70682</v>
+      </c>
+      <c r="AH1">
+        <v>0.72721999999999998</v>
+      </c>
+      <c r="AI1">
+        <v>0.74565999999999999</v>
+      </c>
+      <c r="AJ1">
+        <v>0.69757999999999998</v>
+      </c>
+      <c r="AK1">
+        <v>0.75414000000000003</v>
+      </c>
+      <c r="AL1">
+        <v>0.69633999999999996</v>
+      </c>
+      <c r="AM1">
+        <v>0.76502000000000003</v>
+      </c>
+      <c r="AN1">
+        <v>0.74382000000000004</v>
+      </c>
+      <c r="AO1">
+        <v>0.69835999999999998</v>
+      </c>
+      <c r="AP1">
+        <v>0.75182000000000004</v>
+      </c>
+      <c r="AQ1">
+        <v>0.72692000000000001</v>
+      </c>
+      <c r="AR1">
+        <v>0.70574000000000003</v>
+      </c>
+      <c r="AS1">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AT1">
+        <v>0.73421999999999998</v>
+      </c>
+      <c r="AU1">
+        <v>0.72319999999999995</v>
+      </c>
+      <c r="AV1">
+        <v>0.73272000000000004</v>
+      </c>
+      <c r="AW1">
+        <v>0.72996000000000005</v>
+      </c>
+      <c r="AX1">
+        <v>0.73868</v>
+      </c>
+      <c r="AY1">
+        <v>0.71819999999999995</v>
+      </c>
+      <c r="AZ1">
+        <v>0.73129999999999995</v>
+      </c>
+      <c r="BA1">
+        <v>0.70367999999999997</v>
+      </c>
+      <c r="BB1">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="BC1">
+        <v>0.71784000000000003</v>
+      </c>
+      <c r="BD1">
+        <v>0.71606000000000003</v>
+      </c>
+      <c r="BE1">
+        <v>0.72896000000000005</v>
+      </c>
+      <c r="BF1">
+        <v>0.72008000000000005</v>
+      </c>
+      <c r="BG1">
+        <v>0.70782</v>
+      </c>
+      <c r="BH1">
+        <v>0.73365999999999998</v>
+      </c>
+      <c r="BI1">
+        <v>0.74424000000000001</v>
+      </c>
+      <c r="BJ1">
+        <v>0.70374000000000003</v>
+      </c>
+      <c r="BK1">
+        <v>0.74270000000000003</v>
+      </c>
+      <c r="BL1">
+        <v>0.73348000000000002</v>
+      </c>
+      <c r="BM1">
+        <v>0.72853999999999997</v>
+      </c>
+      <c r="BN1">
+        <v>0.72089999999999999</v>
+      </c>
+      <c r="BO1">
+        <v>0.74287999999999998</v>
+      </c>
+      <c r="BP1">
+        <v>0.71097999999999995</v>
+      </c>
+      <c r="BQ1">
+        <v>0.70804</v>
+      </c>
+      <c r="BR1">
+        <v>0.72058</v>
+      </c>
+      <c r="BS1">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="BT1">
+        <v>0.71343999999999996</v>
+      </c>
+      <c r="BU1">
+        <v>0.69155999999999995</v>
+      </c>
+      <c r="BV1">
+        <v>0.72016000000000002</v>
+      </c>
+      <c r="BW1">
+        <v>0.69532000000000005</v>
+      </c>
+      <c r="BX1">
+        <v>0.74406000000000005</v>
+      </c>
+      <c r="BY1">
+        <v>0.74724000000000002</v>
+      </c>
+      <c r="BZ1">
+        <v>0.75638000000000005</v>
+      </c>
+      <c r="CA1">
+        <v>0.73392000000000002</v>
+      </c>
+      <c r="CB1">
+        <v>0.72060000000000002</v>
+      </c>
+      <c r="CC1">
+        <v>0.71428000000000003</v>
+      </c>
+      <c r="CD1">
+        <v>0.72450000000000003</v>
+      </c>
+      <c r="CE1">
+        <v>0.6986</v>
+      </c>
+      <c r="CF1">
+        <v>0.69655999999999996</v>
+      </c>
+      <c r="CG1">
+        <v>0.72777999999999998</v>
+      </c>
+      <c r="CH1">
+        <v>0.77088000000000001</v>
+      </c>
+      <c r="CI1">
+        <v>0.70557999999999998</v>
+      </c>
+      <c r="CJ1">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="CK1">
+        <v>0.74443999999999999</v>
+      </c>
+      <c r="CL1">
+        <v>0.70440000000000003</v>
+      </c>
+      <c r="CM1">
+        <v>0.74651999999999996</v>
+      </c>
+      <c r="CN1">
+        <v>0.70152000000000003</v>
+      </c>
+      <c r="CO1">
+        <v>0.73958000000000002</v>
+      </c>
+      <c r="CP1">
+        <v>0.69172</v>
+      </c>
+      <c r="CQ1">
+        <v>0.72206000000000004</v>
+      </c>
+      <c r="CR1">
+        <v>0.75065999999999999</v>
+      </c>
+      <c r="CS1">
+        <v>0.70523999999999998</v>
+      </c>
+      <c r="CT1">
+        <v>0.71001999999999998</v>
+      </c>
+      <c r="CU1">
+        <v>0.70469999999999999</v>
+      </c>
+      <c r="CV1">
+        <v>0.73524</v>
+      </c>
+      <c r="CW1">
+        <v>0.72748940000000006</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.76195999999999997</v>
+        <v>0.73626000000000003</v>
       </c>
       <c r="B2">
+        <v>0.74238000000000004</v>
+      </c>
+      <c r="C2">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="D2">
+        <v>0.71333999999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.73350000000000004</v>
+      </c>
+      <c r="F2">
+        <v>0.72982000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.71763999999999994</v>
+      </c>
+      <c r="H2">
+        <v>0.72675999999999996</v>
+      </c>
+      <c r="I2">
+        <v>0.69706000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.72214</v>
+      </c>
+      <c r="K2">
+        <v>0.73418000000000005</v>
+      </c>
+      <c r="L2">
+        <v>0.75378000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.74668000000000001</v>
+      </c>
+      <c r="N2">
+        <v>0.72553999999999996</v>
+      </c>
+      <c r="O2">
+        <v>0.71733999999999998</v>
+      </c>
+      <c r="P2">
+        <v>0.71648000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.78266000000000002</v>
+      </c>
+      <c r="R2">
+        <v>0.73197999999999996</v>
+      </c>
+      <c r="S2">
+        <v>0.71526000000000001</v>
+      </c>
+      <c r="T2">
+        <v>0.73612</v>
+      </c>
+      <c r="U2">
+        <v>0.74680000000000002</v>
+      </c>
+      <c r="V2">
+        <v>0.76156000000000001</v>
+      </c>
+      <c r="W2">
+        <v>0.71404000000000001</v>
+      </c>
+      <c r="X2">
+        <v>0.69630000000000003</v>
+      </c>
+      <c r="Y2">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="Z2">
+        <v>0.75682000000000005</v>
+      </c>
+      <c r="AA2">
+        <v>0.74287999999999998</v>
+      </c>
+      <c r="AB2">
+        <v>0.73319999999999996</v>
+      </c>
+      <c r="AC2">
+        <v>0.72875999999999996</v>
+      </c>
+      <c r="AD2">
+        <v>0.75036000000000003</v>
+      </c>
+      <c r="AE2">
+        <v>0.72048000000000001</v>
+      </c>
+      <c r="AF2">
+        <v>0.71311999999999998</v>
+      </c>
+      <c r="AG2">
+        <v>0.75031999999999999</v>
+      </c>
+      <c r="AH2">
+        <v>0.72751999999999994</v>
+      </c>
+      <c r="AI2">
+        <v>0.67681999999999998</v>
+      </c>
+      <c r="AJ2">
+        <v>0.70745999999999998</v>
+      </c>
+      <c r="AK2">
+        <v>0.70438000000000001</v>
+      </c>
+      <c r="AL2">
+        <v>0.75129999999999997</v>
+      </c>
+      <c r="AM2">
+        <v>0.74865999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.73633999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>0.75260000000000005</v>
+      </c>
+      <c r="AP2">
+        <v>0.69942000000000004</v>
+      </c>
+      <c r="AQ2">
+        <v>0.74016000000000004</v>
+      </c>
+      <c r="AR2">
+        <v>0.69906000000000001</v>
+      </c>
+      <c r="AS2">
+        <v>0.74568000000000001</v>
+      </c>
+      <c r="AT2">
+        <v>0.74278</v>
+      </c>
+      <c r="AU2">
+        <v>0.74253999999999998</v>
+      </c>
+      <c r="AV2">
+        <v>0.73826000000000003</v>
+      </c>
+      <c r="AW2">
+        <v>0.74936000000000003</v>
+      </c>
+      <c r="AX2">
+        <v>0.69374000000000002</v>
+      </c>
+      <c r="AY2">
+        <v>0.71808000000000005</v>
+      </c>
+      <c r="AZ2">
+        <v>0.74746000000000001</v>
+      </c>
+      <c r="BA2">
+        <v>0.71304000000000001</v>
+      </c>
+      <c r="BB2">
+        <v>0.75473999999999997</v>
+      </c>
+      <c r="BC2">
+        <v>0.73226000000000002</v>
+      </c>
+      <c r="BD2">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="BE2">
+        <v>0.71362000000000003</v>
+      </c>
+      <c r="BF2">
+        <v>0.75236000000000003</v>
+      </c>
+      <c r="BG2">
+        <v>0.73360000000000003</v>
+      </c>
+      <c r="BH2">
+        <v>0.73485999999999996</v>
+      </c>
+      <c r="BI2">
+        <v>0.751</v>
+      </c>
+      <c r="BJ2">
+        <v>0.74009999999999998</v>
+      </c>
+      <c r="BK2">
+        <v>0.73673999999999995</v>
+      </c>
+      <c r="BL2">
+        <v>0.74097999999999997</v>
+      </c>
+      <c r="BM2">
+        <v>0.74128000000000005</v>
+      </c>
+      <c r="BN2">
+        <v>0.71874000000000005</v>
+      </c>
+      <c r="BO2">
+        <v>0.70265999999999995</v>
+      </c>
+      <c r="BP2">
+        <v>0.73550000000000004</v>
+      </c>
+      <c r="BQ2">
+        <v>0.74363999999999997</v>
+      </c>
+      <c r="BR2">
+        <v>0.77017999999999998</v>
+      </c>
+      <c r="BS2">
+        <v>0.73116000000000003</v>
+      </c>
+      <c r="BT2">
+        <v>0.71994000000000002</v>
+      </c>
+      <c r="BU2">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="BV2">
+        <v>0.74248000000000003</v>
+      </c>
+      <c r="BW2">
+        <v>0.71521999999999997</v>
+      </c>
+      <c r="BX2">
+        <v>0.71187999999999996</v>
+      </c>
+      <c r="BY2">
+        <v>0.74446000000000001</v>
+      </c>
+      <c r="BZ2">
+        <v>0.74012</v>
+      </c>
+      <c r="CA2">
+        <v>0.72365999999999997</v>
+      </c>
+      <c r="CB2">
+        <v>0.71697999999999995</v>
+      </c>
+      <c r="CC2">
+        <v>0.76578000000000002</v>
+      </c>
+      <c r="CD2">
+        <v>0.72487999999999997</v>
+      </c>
+      <c r="CE2">
+        <v>0.74751999999999996</v>
+      </c>
+      <c r="CF2">
+        <v>0.72311999999999999</v>
+      </c>
+      <c r="CG2">
+        <v>0.76932</v>
+      </c>
+      <c r="CH2">
+        <v>0.73128000000000004</v>
+      </c>
+      <c r="CI2">
+        <v>0.73897999999999997</v>
+      </c>
+      <c r="CJ2">
+        <v>0.74907999999999997</v>
+      </c>
+      <c r="CK2">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="CL2">
+        <v>0.73031999999999997</v>
+      </c>
+      <c r="CM2">
+        <v>0.73809999999999998</v>
+      </c>
+      <c r="CN2">
+        <v>0.76395999999999997</v>
+      </c>
+      <c r="CO2">
+        <v>0.73807999999999996</v>
+      </c>
+      <c r="CP2">
+        <v>0.72604000000000002</v>
+      </c>
+      <c r="CQ2">
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="CR2">
+        <v>0.72023999999999999</v>
+      </c>
+      <c r="CS2">
+        <v>0.72414000000000001</v>
+      </c>
+      <c r="CT2">
+        <v>0.72641999999999995</v>
+      </c>
+      <c r="CU2">
+        <v>0.72987999999999997</v>
+      </c>
+      <c r="CV2">
+        <v>0.76497999999999999</v>
+      </c>
+      <c r="CW2">
+        <v>0.73356600000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.76514000000000004</v>
+      </c>
+      <c r="B3">
+        <v>0.73740000000000006</v>
+      </c>
+      <c r="C3">
+        <v>0.72445999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.71796000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.71442000000000005</v>
+      </c>
+      <c r="F3">
+        <v>0.70533999999999997</v>
+      </c>
+      <c r="G3">
+        <v>0.72045999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.71997999999999995</v>
+      </c>
+      <c r="I3">
+        <v>0.71108000000000005</v>
+      </c>
+      <c r="J3">
+        <v>0.74860000000000004</v>
+      </c>
+      <c r="K3">
+        <v>0.75172000000000005</v>
+      </c>
+      <c r="L3">
+        <v>0.72108000000000005</v>
+      </c>
+      <c r="M3">
+        <v>0.74712000000000001</v>
+      </c>
+      <c r="N3">
+        <v>0.72316000000000003</v>
+      </c>
+      <c r="O3">
+        <v>0.75931999999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.68813999999999997</v>
+      </c>
+      <c r="Q3">
+        <v>0.75426000000000004</v>
+      </c>
+      <c r="R3">
+        <v>0.71741999999999995</v>
+      </c>
+      <c r="S3">
+        <v>0.72541999999999995</v>
+      </c>
+      <c r="T3">
+        <v>0.72185999999999995</v>
+      </c>
+      <c r="U3">
+        <v>0.70347999999999999</v>
+      </c>
+      <c r="V3">
+        <v>0.71708000000000005</v>
+      </c>
+      <c r="W3">
+        <v>0.75258000000000003</v>
+      </c>
+      <c r="X3">
+        <v>0.75688</v>
+      </c>
+      <c r="Y3">
+        <v>0.74034</v>
+      </c>
+      <c r="Z3">
+        <v>0.75504000000000004</v>
+      </c>
+      <c r="AA3">
+        <v>0.74856</v>
+      </c>
+      <c r="AB3">
+        <v>0.72238000000000002</v>
+      </c>
+      <c r="AC3">
+        <v>0.76604000000000005</v>
+      </c>
+      <c r="AD3">
+        <v>0.76182000000000005</v>
+      </c>
+      <c r="AE3">
+        <v>0.755</v>
+      </c>
+      <c r="AF3">
+        <v>0.6915</v>
+      </c>
+      <c r="AG3">
+        <v>0.75238000000000005</v>
+      </c>
+      <c r="AH3">
+        <v>0.71963999999999995</v>
+      </c>
+      <c r="AI3">
+        <v>0.73887999999999998</v>
+      </c>
+      <c r="AJ3">
+        <v>0.70040000000000002</v>
+      </c>
+      <c r="AK3">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="AL3">
+        <v>0.70145999999999997</v>
+      </c>
+      <c r="AM3">
+        <v>0.73533999999999999</v>
+      </c>
+      <c r="AN3">
+        <v>0.73973999999999995</v>
+      </c>
+      <c r="AO3">
+        <v>0.70904</v>
+      </c>
+      <c r="AP3">
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="AQ3">
+        <v>0.73787999999999998</v>
+      </c>
+      <c r="AR3">
+        <v>0.73670000000000002</v>
+      </c>
+      <c r="AS3">
+        <v>0.68837999999999999</v>
+      </c>
+      <c r="AT3">
+        <v>0.71765999999999996</v>
+      </c>
+      <c r="AU3">
+        <v>0.74505999999999994</v>
+      </c>
+      <c r="AV3">
+        <v>0.73858000000000001</v>
+      </c>
+      <c r="AW3">
+        <v>0.69977999999999996</v>
+      </c>
+      <c r="AX3">
+        <v>0.73543999999999998</v>
+      </c>
+      <c r="AY3">
+        <v>0.75324000000000002</v>
+      </c>
+      <c r="AZ3">
+        <v>0.76424000000000003</v>
+      </c>
+      <c r="BA3">
+        <v>0.71143999999999996</v>
+      </c>
+      <c r="BB3">
+        <v>0.71343999999999996</v>
+      </c>
+      <c r="BC3">
+        <v>0.71442000000000005</v>
+      </c>
+      <c r="BD3">
+        <v>0.70945999999999998</v>
+      </c>
+      <c r="BE3">
+        <v>0.72818000000000005</v>
+      </c>
+      <c r="BF3">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="BG3">
+        <v>0.71960000000000002</v>
+      </c>
+      <c r="BH3">
+        <v>0.73809999999999998</v>
+      </c>
+      <c r="BI3">
+        <v>0.70752000000000004</v>
+      </c>
+      <c r="BJ3">
+        <v>0.71333999999999997</v>
+      </c>
+      <c r="BK3">
+        <v>0.73787999999999998</v>
+      </c>
+      <c r="BL3">
+        <v>0.69972000000000001</v>
+      </c>
+      <c r="BM3">
+        <v>0.71308000000000005</v>
+      </c>
+      <c r="BN3">
+        <v>0.70764000000000005</v>
+      </c>
+      <c r="BO3">
+        <v>0.74782000000000004</v>
+      </c>
+      <c r="BP3">
+        <v>0.75094000000000005</v>
+      </c>
+      <c r="BQ3">
+        <v>0.70926</v>
+      </c>
+      <c r="BR3">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="BS3">
+        <v>0.71682000000000001</v>
+      </c>
+      <c r="BT3">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="BU3">
+        <v>0.70169999999999999</v>
+      </c>
+      <c r="BV3">
+        <v>0.72419999999999995</v>
+      </c>
+      <c r="BW3">
+        <v>0.74394000000000005</v>
+      </c>
+      <c r="BX3">
+        <v>0.73846000000000001</v>
+      </c>
+      <c r="BY3">
+        <v>0.70696000000000003</v>
+      </c>
+      <c r="BZ3">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="CA3">
+        <v>0.74294000000000004</v>
+      </c>
+      <c r="CB3">
+        <v>0.72387999999999997</v>
+      </c>
+      <c r="CC3">
+        <v>0.73172000000000004</v>
+      </c>
+      <c r="CD3">
+        <v>0.72896000000000005</v>
+      </c>
+      <c r="CE3">
+        <v>0.70879999999999999</v>
+      </c>
+      <c r="CF3">
+        <v>0.75566</v>
+      </c>
+      <c r="CG3">
+        <v>0.70287999999999995</v>
+      </c>
+      <c r="CH3">
+        <v>0.72655999999999998</v>
+      </c>
+      <c r="CI3">
+        <v>0.72740000000000005</v>
+      </c>
+      <c r="CJ3">
+        <v>0.73048000000000002</v>
+      </c>
+      <c r="CK3">
+        <v>0.70586000000000004</v>
+      </c>
+      <c r="CL3">
+        <v>0.70020000000000004</v>
+      </c>
+      <c r="CM3">
+        <v>0.71870000000000001</v>
+      </c>
+      <c r="CN3">
+        <v>0.74443999999999999</v>
+      </c>
+      <c r="CO3">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="CP3">
+        <v>0.76192000000000004</v>
+      </c>
+      <c r="CQ3">
+        <v>0.71716000000000002</v>
+      </c>
+      <c r="CR3">
+        <v>0.77015999999999996</v>
+      </c>
+      <c r="CS3">
+        <v>0.74931999999999999</v>
+      </c>
+      <c r="CT3">
+        <v>0.71908000000000005</v>
+      </c>
+      <c r="CU3">
+        <v>0.72418000000000005</v>
+      </c>
+      <c r="CV3">
+        <v>0.75161999999999995</v>
+      </c>
+      <c r="CW3">
+        <v>0.72936020000000024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.75546000000000002</v>
+      </c>
+      <c r="B4">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.73258000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.71031999999999995</v>
+      </c>
+      <c r="E4">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.74207999999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.70386000000000004</v>
+      </c>
+      <c r="H4">
+        <v>0.69189999999999996</v>
+      </c>
+      <c r="I4">
+        <v>0.72031999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.74268000000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="L4">
+        <v>0.75305999999999995</v>
+      </c>
+      <c r="M4">
+        <v>0.74202000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.72628000000000004</v>
+      </c>
+      <c r="O4">
+        <v>0.75204000000000004</v>
+      </c>
+      <c r="P4">
+        <v>0.69933999999999996</v>
+      </c>
+      <c r="Q4">
+        <v>0.75141999999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.72692000000000001</v>
+      </c>
+      <c r="S4">
+        <v>0.73192000000000002</v>
+      </c>
+      <c r="T4">
+        <v>0.74116000000000004</v>
+      </c>
+      <c r="U4">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="V4">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="W4">
+        <v>0.74404000000000003</v>
+      </c>
+      <c r="X4">
+        <v>0.73973999999999995</v>
+      </c>
+      <c r="Y4">
+        <v>0.7288</v>
+      </c>
+      <c r="Z4">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="AA4">
+        <v>0.76704000000000006</v>
+      </c>
+      <c r="AB4">
+        <v>0.72023999999999999</v>
+      </c>
+      <c r="AC4">
+        <v>0.74180000000000001</v>
+      </c>
+      <c r="AD4">
+        <v>0.72485999999999995</v>
+      </c>
+      <c r="AE4">
+        <v>0.72763999999999995</v>
+      </c>
+      <c r="AF4">
+        <v>0.73628000000000005</v>
+      </c>
+      <c r="AG4">
+        <v>0.76941999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>0.75488</v>
+      </c>
+      <c r="AI4">
+        <v>0.73073999999999995</v>
+      </c>
+      <c r="AJ4">
+        <v>0.71675999999999995</v>
+      </c>
+      <c r="AK4">
+        <v>0.74631999999999998</v>
+      </c>
+      <c r="AL4">
+        <v>0.71397999999999995</v>
+      </c>
+      <c r="AM4">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="AN4">
+        <v>0.72414000000000001</v>
+      </c>
+      <c r="AO4">
+        <v>0.68852000000000002</v>
+      </c>
+      <c r="AP4">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="AQ4">
+        <v>0.72548000000000001</v>
+      </c>
+      <c r="AR4">
+        <v>0.74495999999999996</v>
+      </c>
+      <c r="AS4">
+        <v>0.70808000000000004</v>
+      </c>
+      <c r="AT4">
+        <v>0.73917999999999995</v>
+      </c>
+      <c r="AU4">
+        <v>0.71533999999999998</v>
+      </c>
+      <c r="AV4">
+        <v>0.73129999999999995</v>
+      </c>
+      <c r="AW4">
+        <v>0.70828000000000002</v>
+      </c>
+      <c r="AX4">
+        <v>0.72052000000000005</v>
+      </c>
+      <c r="AY4">
+        <v>0.72241999999999995</v>
+      </c>
+      <c r="AZ4">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="BA4">
+        <v>0.72416000000000003</v>
+      </c>
+      <c r="BB4">
+        <v>0.73409999999999997</v>
+      </c>
+      <c r="BC4">
+        <v>0.77254</v>
+      </c>
+      <c r="BD4">
+        <v>0.69784000000000002</v>
+      </c>
+      <c r="BE4">
+        <v>0.74397999999999997</v>
+      </c>
+      <c r="BF4">
+        <v>0.71350000000000002</v>
+      </c>
+      <c r="BG4">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="BH4">
+        <v>0.72233999999999998</v>
+      </c>
+      <c r="BI4">
+        <v>0.74941999999999998</v>
+      </c>
+      <c r="BJ4">
+        <v>0.72496000000000005</v>
+      </c>
+      <c r="BK4">
+        <v>0.74407999999999996</v>
+      </c>
+      <c r="BL4">
+        <v>0.71808000000000005</v>
+      </c>
+      <c r="BM4">
+        <v>0.72660000000000002</v>
+      </c>
+      <c r="BN4">
+        <v>0.70745999999999998</v>
+      </c>
+      <c r="BO4">
+        <v>0.74507999999999996</v>
+      </c>
+      <c r="BP4">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="BQ4">
+        <v>0.72463999999999995</v>
+      </c>
+      <c r="BR4">
+        <v>0.72389999999999999</v>
+      </c>
+      <c r="BS4">
+        <v>0.73328000000000004</v>
+      </c>
+      <c r="BT4">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="BU4">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="BV4">
+        <v>0.71353999999999995</v>
+      </c>
+      <c r="BW4">
+        <v>0.72404000000000002</v>
+      </c>
+      <c r="BX4">
+        <v>0.73277999999999999</v>
+      </c>
+      <c r="BY4">
+        <v>0.72524</v>
+      </c>
+      <c r="BZ4">
+        <v>0.77602000000000004</v>
+      </c>
+      <c r="CA4">
+        <v>0.74092000000000002</v>
+      </c>
+      <c r="CB4">
+        <v>0.70860000000000001</v>
+      </c>
+      <c r="CC4">
+        <v>0.73221999999999998</v>
+      </c>
+      <c r="CD4">
+        <v>0.71762000000000004</v>
+      </c>
+      <c r="CE4">
+        <v>0.76304000000000005</v>
+      </c>
+      <c r="CF4">
+        <v>0.72972000000000004</v>
+      </c>
+      <c r="CG4">
+        <v>0.72865999999999997</v>
+      </c>
+      <c r="CH4">
+        <v>0.75302000000000002</v>
+      </c>
+      <c r="CI4">
+        <v>0.72902</v>
+      </c>
+      <c r="CJ4">
+        <v>0.73111999999999999</v>
+      </c>
+      <c r="CK4">
+        <v>0.73284000000000005</v>
+      </c>
+      <c r="CL4">
+        <v>0.74795999999999996</v>
+      </c>
+      <c r="CM4">
+        <v>0.77492000000000005</v>
+      </c>
+      <c r="CN4">
+        <v>0.75105999999999995</v>
+      </c>
+      <c r="CO4">
+        <v>0.75426000000000004</v>
+      </c>
+      <c r="CP4">
+        <v>0.73394000000000004</v>
+      </c>
+      <c r="CQ4">
+        <v>0.73531999999999997</v>
+      </c>
+      <c r="CR4">
+        <v>0.76726000000000005</v>
+      </c>
+      <c r="CS4">
+        <v>0.71614</v>
+      </c>
+      <c r="CT4">
+        <v>0.72096000000000005</v>
+      </c>
+      <c r="CU4">
+        <v>0.74292000000000002</v>
+      </c>
+      <c r="CV4">
+        <v>0.72172000000000003</v>
+      </c>
+      <c r="CW4">
+        <v>0.73350739999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.73548000000000002</v>
+      </c>
+      <c r="B5">
+        <v>0.74028000000000005</v>
+      </c>
+      <c r="C5">
+        <v>0.75097999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.72626000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.70030000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.73292000000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.74687999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.77158000000000004</v>
+      </c>
+      <c r="J5">
+        <v>0.69345999999999997</v>
+      </c>
+      <c r="K5">
+        <v>0.74570000000000003</v>
+      </c>
+      <c r="L5">
+        <v>0.72138000000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.70418000000000003</v>
+      </c>
+      <c r="N5">
+        <v>0.74878</v>
+      </c>
+      <c r="O5">
+        <v>0.69767999999999997</v>
+      </c>
+      <c r="P5">
+        <v>0.71406000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>0.74468000000000001</v>
+      </c>
+      <c r="R5">
+        <v>0.73331999999999997</v>
+      </c>
+      <c r="S5">
+        <v>0.71638000000000002</v>
+      </c>
+      <c r="T5">
+        <v>0.73614000000000002</v>
+      </c>
+      <c r="U5">
+        <v>0.70635999999999999</v>
+      </c>
+      <c r="V5">
+        <v>0.71386000000000005</v>
+      </c>
+      <c r="W5">
+        <v>0.75212000000000001</v>
+      </c>
+      <c r="X5">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="Y5">
+        <v>0.70320000000000005</v>
+      </c>
+      <c r="Z5">
+        <v>0.74509999999999998</v>
+      </c>
+      <c r="AA5">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="AB5">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="AC5">
+        <v>0.75405999999999995</v>
+      </c>
+      <c r="AD5">
+        <v>0.76161999999999996</v>
+      </c>
+      <c r="AE5">
+        <v>0.73982000000000003</v>
+      </c>
+      <c r="AF5">
+        <v>0.72989999999999999</v>
+      </c>
+      <c r="AG5">
+        <v>0.72536</v>
+      </c>
+      <c r="AH5">
+        <v>0.70852000000000004</v>
+      </c>
+      <c r="AI5">
+        <v>0.74077999999999999</v>
+      </c>
+      <c r="AJ5">
+        <v>0.73418000000000005</v>
+      </c>
+      <c r="AK5">
+        <v>0.72936000000000001</v>
+      </c>
+      <c r="AL5">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="AM5">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="AN5">
+        <v>0.73904000000000003</v>
+      </c>
+      <c r="AO5">
+        <v>0.74458000000000002</v>
+      </c>
+      <c r="AP5">
+        <v>0.74934000000000001</v>
+      </c>
+      <c r="AQ5">
+        <v>0.74526000000000003</v>
+      </c>
+      <c r="AR5">
+        <v>0.76234000000000002</v>
+      </c>
+      <c r="AS5">
+        <v>0.74961999999999995</v>
+      </c>
+      <c r="AT5">
+        <v>0.71001999999999998</v>
+      </c>
+      <c r="AU5">
+        <v>0.75385999999999997</v>
+      </c>
+      <c r="AV5">
+        <v>0.74204000000000003</v>
+      </c>
+      <c r="AW5">
+        <v>0.72843999999999998</v>
+      </c>
+      <c r="AX5">
+        <v>0.71860000000000002</v>
+      </c>
+      <c r="AY5">
+        <v>0.74021999999999999</v>
+      </c>
+      <c r="AZ5">
+        <v>0.71828000000000003</v>
+      </c>
+      <c r="BA5">
+        <v>0.72265999999999997</v>
+      </c>
+      <c r="BB5">
+        <v>0.73580000000000001</v>
+      </c>
+      <c r="BC5">
+        <v>0.71082000000000001</v>
+      </c>
+      <c r="BD5">
+        <v>0.73477999999999999</v>
+      </c>
+      <c r="BE5">
+        <v>0.70582</v>
+      </c>
+      <c r="BF5">
+        <v>0.74543999999999999</v>
+      </c>
+      <c r="BG5">
+        <v>0.7389</v>
+      </c>
+      <c r="BH5">
+        <v>0.73948000000000003</v>
+      </c>
+      <c r="BI5">
+        <v>0.72328000000000003</v>
+      </c>
+      <c r="BJ5">
+        <v>0.72804000000000002</v>
+      </c>
+      <c r="BK5">
+        <v>0.71870000000000001</v>
+      </c>
+      <c r="BL5">
+        <v>0.72175999999999996</v>
+      </c>
+      <c r="BM5">
+        <v>0.69177999999999995</v>
+      </c>
+      <c r="BN5">
+        <v>0.69242000000000004</v>
+      </c>
+      <c r="BO5">
+        <v>0.72441999999999995</v>
+      </c>
+      <c r="BP5">
+        <v>0.74485999999999997</v>
+      </c>
+      <c r="BQ5">
+        <v>0.73846000000000001</v>
+      </c>
+      <c r="BR5">
+        <v>0.70679999999999998</v>
+      </c>
+      <c r="BS5">
+        <v>0.70457999999999998</v>
+      </c>
+      <c r="BT5">
+        <v>0.73936000000000002</v>
+      </c>
+      <c r="BU5">
+        <v>0.71175999999999995</v>
+      </c>
+      <c r="BV5">
+        <v>0.72962000000000005</v>
+      </c>
+      <c r="BW5">
+        <v>0.74138000000000004</v>
+      </c>
+      <c r="BX5">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="BY5">
+        <v>0.71745999999999999</v>
+      </c>
+      <c r="BZ5">
+        <v>0.7177</v>
+      </c>
+      <c r="CA5">
+        <v>0.69628000000000001</v>
+      </c>
+      <c r="CB5">
+        <v>0.72792000000000001</v>
+      </c>
+      <c r="CC5">
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="CD5">
+        <v>0.71006000000000002</v>
+      </c>
+      <c r="CE5">
+        <v>0.73428000000000004</v>
+      </c>
+      <c r="CF5">
+        <v>0.76083999999999996</v>
+      </c>
+      <c r="CG5">
+        <v>0.68776000000000004</v>
+      </c>
+      <c r="CH5">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="CI5">
+        <v>0.70106000000000002</v>
+      </c>
+      <c r="CJ5">
+        <v>0.72506000000000004</v>
+      </c>
+      <c r="CK5">
+        <v>0.71655999999999997</v>
+      </c>
+      <c r="CL5">
+        <v>0.71494000000000002</v>
+      </c>
+      <c r="CM5">
+        <v>0.72416000000000003</v>
+      </c>
+      <c r="CN5">
+        <v>0.73595999999999995</v>
+      </c>
+      <c r="CO5">
+        <v>0.72136</v>
+      </c>
+      <c r="CP5">
+        <v>0.73243999999999998</v>
+      </c>
+      <c r="CQ5">
+        <v>0.72206000000000004</v>
+      </c>
+      <c r="CR5">
+        <v>0.73958000000000002</v>
+      </c>
+      <c r="CS5">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="CT5">
+        <v>0.74428000000000005</v>
+      </c>
+      <c r="CU5">
+        <v>0.73192000000000002</v>
+      </c>
+      <c r="CV5">
+        <v>0.69535999999999998</v>
+      </c>
+      <c r="CW5">
+        <v>0.72872780000000015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.75105999999999995</v>
+      </c>
+      <c r="B6">
+        <v>0.73616000000000004</v>
+      </c>
+      <c r="C6">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.72441999999999995</v>
+      </c>
+      <c r="E6">
+        <v>0.74531999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.76114000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.71362000000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.73414000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.72918000000000005</v>
+      </c>
+      <c r="J6">
+        <v>0.73004000000000002</v>
+      </c>
+      <c r="K6">
+        <v>0.74106000000000005</v>
+      </c>
+      <c r="L6">
+        <v>0.7419</v>
+      </c>
+      <c r="M6">
+        <v>0.69862000000000002</v>
+      </c>
+      <c r="N6">
+        <v>0.75766</v>
+      </c>
+      <c r="O6">
+        <v>0.76619999999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.75083999999999995</v>
+      </c>
+      <c r="Q6">
+        <v>0.73414000000000001</v>
+      </c>
+      <c r="R6">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="S6">
+        <v>0.73673999999999995</v>
+      </c>
+      <c r="T6">
+        <v>0.72328000000000003</v>
+      </c>
+      <c r="U6">
+        <v>0.75963999999999998</v>
+      </c>
+      <c r="V6">
+        <v>0.73509999999999998</v>
+      </c>
+      <c r="W6">
+        <v>0.74536000000000002</v>
+      </c>
+      <c r="X6">
+        <v>0.74207999999999996</v>
+      </c>
+      <c r="Y6">
+        <v>0.71462000000000003</v>
+      </c>
+      <c r="Z6">
+        <v>0.72982000000000002</v>
+      </c>
+      <c r="AA6">
+        <v>0.72440000000000004</v>
+      </c>
+      <c r="AB6">
+        <v>0.71438000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>0.71267999999999998</v>
+      </c>
+      <c r="AD6">
+        <v>0.71216000000000002</v>
+      </c>
+      <c r="AE6">
+        <v>0.75644</v>
+      </c>
+      <c r="AF6">
+        <v>0.71233999999999997</v>
+      </c>
+      <c r="AG6">
+        <v>0.74583999999999995</v>
+      </c>
+      <c r="AH6">
+        <v>0.69898000000000005</v>
+      </c>
+      <c r="AI6">
+        <v>0.75446000000000002</v>
+      </c>
+      <c r="AJ6">
+        <v>0.69532000000000005</v>
+      </c>
+      <c r="AK6">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="AL6">
+        <v>0.72874000000000005</v>
+      </c>
+      <c r="AM6">
+        <v>0.73734</v>
+      </c>
+      <c r="AN6">
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="AO6">
+        <v>0.72204000000000002</v>
+      </c>
+      <c r="AP6">
+        <v>0.72011999999999998</v>
+      </c>
+      <c r="AQ6">
+        <v>0.73946000000000001</v>
+      </c>
+      <c r="AR6">
+        <v>0.74848000000000003</v>
+      </c>
+      <c r="AS6">
+        <v>0.71608000000000005</v>
+      </c>
+      <c r="AT6">
+        <v>0.72872000000000003</v>
+      </c>
+      <c r="AU6">
+        <v>0.72511999999999999</v>
+      </c>
+      <c r="AV6">
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="AW6">
+        <v>0.72762000000000004</v>
+      </c>
+      <c r="AX6">
+        <v>0.74826000000000004</v>
+      </c>
+      <c r="AY6">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="AZ6">
+        <v>0.72858000000000001</v>
+      </c>
+      <c r="BA6">
+        <v>0.74184000000000005</v>
+      </c>
+      <c r="BB6">
+        <v>0.70492999999999995</v>
+      </c>
+      <c r="BC6">
+        <v>0.75368000000000002</v>
+      </c>
+      <c r="BD6">
+        <v>0.72248000000000001</v>
+      </c>
+      <c r="BE6">
+        <v>0.71992</v>
+      </c>
+      <c r="BF6">
+        <v>0.75261999999999996</v>
+      </c>
+      <c r="BG6">
+        <v>0.72904000000000002</v>
+      </c>
+      <c r="BH6">
+        <v>0.72204000000000002</v>
+      </c>
+      <c r="BI6">
+        <v>0.71743999999999997</v>
+      </c>
+      <c r="BJ6">
+        <v>0.74077999999999999</v>
+      </c>
+      <c r="BK6">
+        <v>0.72794000000000003</v>
+      </c>
+      <c r="BL6">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="BM6">
+        <v>0.75346000000000002</v>
+      </c>
+      <c r="BN6">
+        <v>0.72994000000000003</v>
+      </c>
+      <c r="BO6">
+        <v>0.72504000000000002</v>
+      </c>
+      <c r="BP6">
+        <v>0.71536</v>
+      </c>
+      <c r="BQ6">
+        <v>0.71631999999999996</v>
+      </c>
+      <c r="BR6">
+        <v>0.73136000000000001</v>
+      </c>
+      <c r="BS6">
+        <v>0.74161999999999995</v>
+      </c>
+      <c r="BT6">
+        <v>0.75273999999999996</v>
+      </c>
+      <c r="BU6">
+        <v>0.72509999999999997</v>
+      </c>
+      <c r="BV6">
+        <v>0.73072000000000004</v>
+      </c>
+      <c r="BW6">
+        <v>0.74843999999999999</v>
+      </c>
+      <c r="BX6">
+        <v>0.71084000000000003</v>
+      </c>
+      <c r="BY6">
+        <v>0.7177</v>
+      </c>
+      <c r="BZ6">
+        <v>0.71321999999999997</v>
+      </c>
+      <c r="CA6">
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="CB6">
+        <v>0.73648000000000002</v>
+      </c>
+      <c r="CC6">
+        <v>0.73450000000000004</v>
+      </c>
+      <c r="CD6">
+        <v>0.70147999999999999</v>
+      </c>
+      <c r="CE6">
+        <v>0.73543999999999998</v>
+      </c>
+      <c r="CF6">
+        <v>0.72250000000000003</v>
+      </c>
+      <c r="CG6">
+        <v>0.71948000000000001</v>
+      </c>
+      <c r="CH6">
+        <v>0.73577999999999999</v>
+      </c>
+      <c r="CI6">
+        <v>0.73821999999999999</v>
+      </c>
+      <c r="CJ6">
+        <v>0.74478</v>
+      </c>
+      <c r="CK6">
+        <v>0.751</v>
+      </c>
+      <c r="CL6">
+        <v>0.72606000000000004</v>
+      </c>
+      <c r="CM6">
+        <v>0.75065999999999999</v>
+      </c>
+      <c r="CN6">
+        <v>0.71843999999999997</v>
+      </c>
+      <c r="CO6">
+        <v>0.71065999999999996</v>
+      </c>
+      <c r="CP6">
+        <v>0.71528000000000003</v>
+      </c>
+      <c r="CQ6">
+        <v>0.755</v>
+      </c>
+      <c r="CR6">
+        <v>0.74192000000000002</v>
+      </c>
+      <c r="CS6">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="CT6">
+        <v>0.75095999999999996</v>
+      </c>
+      <c r="CU6">
+        <v>0.74028000000000005</v>
+      </c>
+      <c r="CV6">
+        <v>0.72450000000000003</v>
+      </c>
+      <c r="CW6">
+        <v>0.73185789999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.70713999999999999</v>
+      </c>
+      <c r="B7">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.72162000000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.72916000000000003</v>
+      </c>
+      <c r="F7">
+        <v>0.72121999999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.77461999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.71528000000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.73172000000000004</v>
+      </c>
+      <c r="J7">
+        <v>0.72645999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.71348999999999996</v>
+      </c>
+      <c r="L7">
+        <v>0.74048000000000003</v>
+      </c>
+      <c r="M7">
+        <v>0.71711999999999998</v>
+      </c>
+      <c r="N7">
+        <v>0.70713999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.74709999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.70009999999999994</v>
+      </c>
+      <c r="Q7">
+        <v>0.70206000000000002</v>
+      </c>
+      <c r="R7">
+        <v>0.72358</v>
+      </c>
+      <c r="S7">
+        <v>0.71342000000000005</v>
+      </c>
+      <c r="T7">
+        <v>0.72331999999999996</v>
+      </c>
+      <c r="U7">
+        <v>0.70838000000000001</v>
+      </c>
+      <c r="V7">
+        <v>0.72496000000000005</v>
+      </c>
+      <c r="W7">
+        <v>0.72185999999999995</v>
+      </c>
+      <c r="X7">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="Y7">
+        <v>0.72021999999999997</v>
+      </c>
+      <c r="Z7">
+        <v>0.75575999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>0.72060000000000002</v>
+      </c>
+      <c r="AB7">
+        <v>0.74783999999999995</v>
+      </c>
+      <c r="AC7">
+        <v>0.72996000000000005</v>
+      </c>
+      <c r="AD7">
+        <v>0.72748000000000002</v>
+      </c>
+      <c r="AE7">
+        <v>0.7349</v>
+      </c>
+      <c r="AF7">
+        <v>0.70694000000000001</v>
+      </c>
+      <c r="AG7">
+        <v>0.6976</v>
+      </c>
+      <c r="AH7">
+        <v>0.71755999999999998</v>
+      </c>
+      <c r="AI7">
+        <v>0.71096000000000004</v>
+      </c>
+      <c r="AJ7">
+        <v>0.74668000000000001</v>
+      </c>
+      <c r="AK7">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="AL7">
+        <v>0.72648000000000001</v>
+      </c>
+      <c r="AM7">
+        <v>0.75617999999999996</v>
+      </c>
+      <c r="AN7">
+        <v>0.73119999999999996</v>
+      </c>
+      <c r="AO7">
+        <v>0.72143999999999997</v>
+      </c>
+      <c r="AP7">
+        <v>0.71970000000000001</v>
+      </c>
+      <c r="AQ7">
+        <v>0.73265999999999998</v>
+      </c>
+      <c r="AR7">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="AS7">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="AT7">
+        <v>0.73251999999999995</v>
+      </c>
+      <c r="AU7">
+        <v>0.72806000000000004</v>
+      </c>
+      <c r="AV7">
+        <v>0.72606000000000004</v>
+      </c>
+      <c r="AW7">
+        <v>0.70469999999999999</v>
+      </c>
+      <c r="AX7">
+        <v>0.74743999999999999</v>
+      </c>
+      <c r="AY7">
+        <v>0.73373999999999995</v>
+      </c>
+      <c r="AZ7">
+        <v>0.73563999999999996</v>
+      </c>
+      <c r="BA7">
+        <v>0.73941999999999997</v>
+      </c>
+      <c r="BB7">
+        <v>0.71972000000000003</v>
+      </c>
+      <c r="BC7">
+        <v>0.73646</v>
+      </c>
+      <c r="BD7">
+        <v>0.71130000000000004</v>
+      </c>
+      <c r="BE7">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="BF7">
+        <v>0.71921999999999997</v>
+      </c>
+      <c r="BG7">
+        <v>0.7379</v>
+      </c>
+      <c r="BH7">
+        <v>0.70086000000000004</v>
+      </c>
+      <c r="BI7">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="BJ7">
+        <v>0.71709999999999996</v>
+      </c>
+      <c r="BK7">
+        <v>0.70791999999999999</v>
+      </c>
+      <c r="BL7">
+        <v>0.70240000000000002</v>
+      </c>
+      <c r="BM7">
+        <v>0.71923999999999999</v>
+      </c>
+      <c r="BN7">
+        <v>0.74851999999999996</v>
+      </c>
+      <c r="BO7">
+        <v>0.73072000000000004</v>
+      </c>
+      <c r="BP7">
+        <v>0.69037999999999999</v>
+      </c>
+      <c r="BQ7">
+        <v>0.73931999999999998</v>
+      </c>
+      <c r="BR7">
+        <v>0.73068</v>
+      </c>
+      <c r="BS7">
+        <v>0.72104000000000001</v>
+      </c>
+      <c r="BT7">
+        <v>0.70986000000000005</v>
+      </c>
+      <c r="BU7">
+        <v>0.68713999999999997</v>
+      </c>
+      <c r="BV7">
+        <v>0.73755999999999999</v>
+      </c>
+      <c r="BW7">
+        <v>0.74068000000000001</v>
+      </c>
+      <c r="BX7">
+        <v>0.71084000000000003</v>
+      </c>
+      <c r="BY7">
+        <v>0.70567999999999997</v>
+      </c>
+      <c r="BZ7">
+        <v>0.73146</v>
+      </c>
+      <c r="CA7">
+        <v>0.72282000000000002</v>
+      </c>
+      <c r="CB7">
+        <v>0.71342000000000005</v>
+      </c>
+      <c r="CC7">
+        <v>0.71494000000000002</v>
+      </c>
+      <c r="CD7">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="CE7">
+        <v>0.74231999999999998</v>
+      </c>
+      <c r="CF7">
+        <v>0.69621999999999995</v>
+      </c>
+      <c r="CG7">
+        <v>0.74031999999999998</v>
+      </c>
+      <c r="CH7">
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="CI7">
+        <v>0.73465999999999998</v>
+      </c>
+      <c r="CJ7">
+        <v>0.72916000000000003</v>
+      </c>
+      <c r="CK7">
+        <v>0.71904000000000001</v>
+      </c>
+      <c r="CL7">
+        <v>0.77239999999999998</v>
+      </c>
+      <c r="CM7">
+        <v>0.72423999999999999</v>
+      </c>
+      <c r="CN7">
+        <v>0.71718000000000004</v>
+      </c>
+      <c r="CO7">
+        <v>0.74187999999999998</v>
+      </c>
+      <c r="CP7">
+        <v>0.74892000000000003</v>
+      </c>
+      <c r="CQ7">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="CR7">
+        <v>0.69928000000000001</v>
+      </c>
+      <c r="CS7">
+        <v>0.72287999999999997</v>
+      </c>
+      <c r="CT7">
+        <v>0.71152000000000004</v>
+      </c>
+      <c r="CU7">
+        <v>0.70748</v>
+      </c>
+      <c r="CV7">
+        <v>0.71631999999999996</v>
+      </c>
+      <c r="CW7">
+        <v>0.72424669999999969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.73873999999999995</v>
+      </c>
+      <c r="B8">
+        <v>0.75370000000000004</v>
+      </c>
+      <c r="C8">
+        <v>0.73040000000000005</v>
+      </c>
+      <c r="D8">
+        <v>0.73275999999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.73436000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.71743999999999997</v>
+      </c>
+      <c r="G8">
+        <v>0.7167</v>
+      </c>
+      <c r="H8">
+        <v>0.73251999999999995</v>
+      </c>
+      <c r="I8">
+        <v>0.72167999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.71086000000000005</v>
+      </c>
+      <c r="K8">
+        <v>0.74528000000000005</v>
+      </c>
+      <c r="L8">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="M8">
+        <v>0.71874000000000005</v>
+      </c>
+      <c r="N8">
+        <v>0.72484000000000004</v>
+      </c>
+      <c r="O8">
+        <v>0.71996000000000004</v>
+      </c>
+      <c r="P8">
+        <v>0.70904</v>
+      </c>
+      <c r="Q8">
+        <v>0.71414</v>
+      </c>
+      <c r="R8">
+        <v>0.71231999999999995</v>
+      </c>
+      <c r="S8">
+        <v>0.69023999999999996</v>
+      </c>
+      <c r="T8">
+        <v>0.72019999999999995</v>
+      </c>
+      <c r="U8">
+        <v>0.72884000000000004</v>
+      </c>
+      <c r="V8">
+        <v>0.74487999999999999</v>
+      </c>
+      <c r="W8">
+        <v>0.71819999999999995</v>
+      </c>
+      <c r="X8">
+        <v>0.71357999999999999</v>
+      </c>
+      <c r="Y8">
+        <v>0.72536</v>
+      </c>
+      <c r="Z8">
+        <v>0.70454000000000006</v>
+      </c>
+      <c r="AA8">
+        <v>0.73740000000000006</v>
+      </c>
+      <c r="AB8">
+        <v>0.72992000000000001</v>
+      </c>
+      <c r="AC8">
+        <v>0.71579999999999999</v>
+      </c>
+      <c r="AD8">
+        <v>0.70355999999999996</v>
+      </c>
+      <c r="AE8">
+        <v>0.72806000000000004</v>
+      </c>
+      <c r="AF8">
+        <v>0.74028000000000005</v>
+      </c>
+      <c r="AG8">
+        <v>0.73284000000000005</v>
+      </c>
+      <c r="AH8">
+        <v>0.69291999999999998</v>
+      </c>
+      <c r="AI8">
+        <v>0.72070000000000001</v>
+      </c>
+      <c r="AJ8">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="AK8">
+        <v>0.70401999999999998</v>
+      </c>
+      <c r="AL8">
+        <v>0.72874000000000005</v>
+      </c>
+      <c r="AM8">
+        <v>0.71143999999999996</v>
+      </c>
+      <c r="AN8">
+        <v>0.72072000000000003</v>
+      </c>
+      <c r="AO8">
+        <v>0.74117999999999995</v>
+      </c>
+      <c r="AP8">
+        <v>0.69930000000000003</v>
+      </c>
+      <c r="AQ8">
+        <v>0.68998000000000004</v>
+      </c>
+      <c r="AR8">
+        <v>0.72629999999999995</v>
+      </c>
+      <c r="AS8">
+        <v>0.72824</v>
+      </c>
+      <c r="AT8">
+        <v>0.75148000000000004</v>
+      </c>
+      <c r="AU8">
+        <v>0.73136000000000001</v>
+      </c>
+      <c r="AV8">
+        <v>0.71333999999999997</v>
+      </c>
+      <c r="AW8">
+        <v>0.73958000000000002</v>
+      </c>
+      <c r="AX8">
+        <v>0.69928000000000001</v>
+      </c>
+      <c r="AY8">
+        <v>0.73963999999999996</v>
+      </c>
+      <c r="AZ8">
+        <v>0.69096000000000002</v>
+      </c>
+      <c r="BA8">
+        <v>0.73224</v>
+      </c>
+      <c r="BB8">
+        <v>0.73521999999999998</v>
+      </c>
+      <c r="BC8">
+        <v>0.73326000000000002</v>
+      </c>
+      <c r="BD8">
+        <v>0.71916000000000002</v>
+      </c>
+      <c r="BE8">
+        <v>0.68898000000000004</v>
+      </c>
+      <c r="BF8">
+        <v>0.73433999999999999</v>
+      </c>
+      <c r="BG8">
+        <v>0.70843999999999996</v>
+      </c>
+      <c r="BH8">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="BI8">
+        <v>0.72106000000000003</v>
+      </c>
+      <c r="BJ8">
+        <v>0.74451999999999996</v>
+      </c>
+      <c r="BK8">
+        <v>0.76595999999999997</v>
+      </c>
+      <c r="BL8">
+        <v>0.72153999999999996</v>
+      </c>
+      <c r="BM8">
+        <v>0.72824</v>
+      </c>
+      <c r="BN8">
+        <v>0.70513999999999999</v>
+      </c>
+      <c r="BO8">
+        <v>0.71628000000000003</v>
+      </c>
+      <c r="BP8">
+        <v>0.72402</v>
+      </c>
+      <c r="BQ8">
+        <v>0.74695999999999996</v>
+      </c>
+      <c r="BR8">
+        <v>0.72019999999999995</v>
+      </c>
+      <c r="BS8">
+        <v>0.70933999999999997</v>
+      </c>
+      <c r="BT8">
+        <v>0.72948000000000002</v>
+      </c>
+      <c r="BU8">
+        <v>0.70764000000000005</v>
+      </c>
+      <c r="BV8">
+        <v>0.74280000000000002</v>
+      </c>
+      <c r="BW8">
+        <v>0.73673999999999995</v>
+      </c>
+      <c r="BX8">
+        <v>0.71762000000000004</v>
+      </c>
+      <c r="BY8">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="BZ8">
+        <v>0.76085999999999998</v>
+      </c>
+      <c r="CA8">
+        <v>0.73321999999999998</v>
+      </c>
+      <c r="CB8">
+        <v>0.71514</v>
+      </c>
+      <c r="CC8">
+        <v>0.74441999999999997</v>
+      </c>
+      <c r="CD8">
+        <v>0.72738000000000003</v>
+      </c>
+      <c r="CE8">
+        <v>0.71738000000000002</v>
+      </c>
+      <c r="CF8">
+        <v>0.73553999999999997</v>
+      </c>
+      <c r="CG8">
+        <v>0.74156</v>
+      </c>
+      <c r="CH8">
+        <v>0.72365999999999997</v>
+      </c>
+      <c r="CI8">
+        <v>0.70216000000000001</v>
+      </c>
+      <c r="CJ8">
+        <v>0.75061999999999995</v>
+      </c>
+      <c r="CK8">
+        <v>0.72026000000000001</v>
+      </c>
+      <c r="CL8">
+        <v>0.68944000000000005</v>
+      </c>
+      <c r="CM8">
+        <v>0.72272000000000003</v>
+      </c>
+      <c r="CN8">
+        <v>0.74243999999999999</v>
+      </c>
+      <c r="CO8">
+        <v>0.75627999999999995</v>
+      </c>
+      <c r="CP8">
+        <v>0.74273999999999996</v>
+      </c>
+      <c r="CQ8">
+        <v>0.70775999999999994</v>
+      </c>
+      <c r="CR8">
+        <v>0.7389</v>
+      </c>
+      <c r="CS8">
+        <v>0.70076000000000005</v>
+      </c>
+      <c r="CT8">
+        <v>0.70831999999999995</v>
+      </c>
+      <c r="CU8">
+        <v>0.71309999999999996</v>
+      </c>
+      <c r="CV8">
+        <v>0.70438000000000001</v>
+      </c>
+      <c r="CW8">
+        <v>0.72375479999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.72785999999999995</v>
+      </c>
+      <c r="B9">
+        <v>0.74112</v>
+      </c>
+      <c r="C9">
+        <v>0.75592000000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.74443999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.71096000000000004</v>
+      </c>
+      <c r="F9">
+        <v>0.71543999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.71986000000000006</v>
+      </c>
+      <c r="H9">
+        <v>0.71074000000000004</v>
+      </c>
+      <c r="I9">
+        <v>0.75212000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.72867999999999999</v>
+      </c>
+      <c r="K9">
         <v>0.76097999999999999</v>
       </c>
-      <c r="C2">
-        <v>0.76146999999999998</v>
+      <c r="L9">
+        <v>0.75341999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.68037999999999998</v>
+      </c>
+      <c r="N9">
+        <v>0.71784000000000003</v>
+      </c>
+      <c r="O9">
+        <v>0.73160000000000003</v>
+      </c>
+      <c r="P9">
+        <v>0.72655999999999998</v>
+      </c>
+      <c r="Q9">
+        <v>0.74336000000000002</v>
+      </c>
+      <c r="R9">
+        <v>0.73968</v>
+      </c>
+      <c r="S9">
+        <v>0.73224</v>
+      </c>
+      <c r="T9">
+        <v>0.71841999999999995</v>
+      </c>
+      <c r="U9">
+        <v>0.74512</v>
+      </c>
+      <c r="V9">
+        <v>0.71275999999999995</v>
+      </c>
+      <c r="W9">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="X9">
+        <v>0.72460000000000002</v>
+      </c>
+      <c r="Y9">
+        <v>0.76049999999999995</v>
+      </c>
+      <c r="Z9">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="AA9">
+        <v>0.74643999999999999</v>
+      </c>
+      <c r="AB9">
+        <v>0.74697999999999998</v>
+      </c>
+      <c r="AC9">
+        <v>0.72726000000000002</v>
+      </c>
+      <c r="AD9">
+        <v>0.74621999999999999</v>
+      </c>
+      <c r="AE9">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="AF9">
+        <v>0.73243999999999998</v>
+      </c>
+      <c r="AG9">
+        <v>0.73670000000000002</v>
+      </c>
+      <c r="AH9">
+        <v>0.71952000000000005</v>
+      </c>
+      <c r="AI9">
+        <v>0.74602000000000002</v>
+      </c>
+      <c r="AJ9">
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="AK9">
+        <v>0.71831999999999996</v>
+      </c>
+      <c r="AL9">
+        <v>0.73092000000000001</v>
+      </c>
+      <c r="AM9">
+        <v>0.74121999999999999</v>
+      </c>
+      <c r="AN9">
+        <v>0.73543999999999998</v>
+      </c>
+      <c r="AO9">
+        <v>0.70733999999999997</v>
+      </c>
+      <c r="AP9">
+        <v>0.72889999999999999</v>
+      </c>
+      <c r="AQ9">
+        <v>0.73631999999999997</v>
+      </c>
+      <c r="AR9">
+        <v>0.72916000000000003</v>
+      </c>
+      <c r="AS9">
+        <v>0.75317999999999996</v>
+      </c>
+      <c r="AT9">
+        <v>0.72014</v>
+      </c>
+      <c r="AU9">
+        <v>0.72855999999999999</v>
+      </c>
+      <c r="AV9">
+        <v>0.70643999999999996</v>
+      </c>
+      <c r="AW9">
+        <v>0.71333999999999997</v>
+      </c>
+      <c r="AX9">
+        <v>0.6996</v>
+      </c>
+      <c r="AY9">
+        <v>0.71852000000000005</v>
+      </c>
+      <c r="AZ9">
+        <v>0.71072000000000002</v>
+      </c>
+      <c r="BA9">
+        <v>0.73392000000000002</v>
+      </c>
+      <c r="BB9">
+        <v>0.73096000000000005</v>
+      </c>
+      <c r="BC9">
+        <v>0.70938000000000001</v>
+      </c>
+      <c r="BD9">
+        <v>0.73907999999999996</v>
+      </c>
+      <c r="BE9">
+        <v>0.73914000000000002</v>
+      </c>
+      <c r="BF9">
+        <v>0.6986</v>
+      </c>
+      <c r="BG9">
+        <v>0.73387999999999998</v>
+      </c>
+      <c r="BH9">
+        <v>0.74678</v>
+      </c>
+      <c r="BI9">
+        <v>0.71531999999999996</v>
+      </c>
+      <c r="BJ9">
+        <v>0.72470000000000001</v>
+      </c>
+      <c r="BK9">
+        <v>0.72929999999999995</v>
+      </c>
+      <c r="BL9">
+        <v>0.73350000000000004</v>
+      </c>
+      <c r="BM9">
+        <v>0.71406000000000003</v>
+      </c>
+      <c r="BN9">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="BO9">
+        <v>0.73341999999999996</v>
+      </c>
+      <c r="BP9">
+        <v>0.71001999999999998</v>
+      </c>
+      <c r="BQ9">
+        <v>0.73414000000000001</v>
+      </c>
+      <c r="BR9">
+        <v>0.74116000000000004</v>
+      </c>
+      <c r="BS9">
+        <v>0.72030000000000005</v>
+      </c>
+      <c r="BT9">
+        <v>0.71123999999999998</v>
+      </c>
+      <c r="BU9">
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="BV9">
+        <v>0.75348000000000004</v>
+      </c>
+      <c r="BW9">
+        <v>0.72804000000000002</v>
+      </c>
+      <c r="BX9">
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="BY9">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="BZ9">
+        <v>0.69362000000000001</v>
+      </c>
+      <c r="CA9">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="CB9">
+        <v>0.73870000000000002</v>
+      </c>
+      <c r="CC9">
+        <v>0.70831999999999995</v>
+      </c>
+      <c r="CD9">
+        <v>0.7167</v>
+      </c>
+      <c r="CE9">
+        <v>0.74334</v>
+      </c>
+      <c r="CF9">
+        <v>0.72585999999999995</v>
+      </c>
+      <c r="CG9">
+        <v>0.71060000000000001</v>
+      </c>
+      <c r="CH9">
+        <v>0.71736</v>
+      </c>
+      <c r="CI9">
+        <v>0.70696000000000003</v>
+      </c>
+      <c r="CJ9">
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="CK9">
+        <v>0.73392000000000002</v>
+      </c>
+      <c r="CL9">
+        <v>0.7298</v>
+      </c>
+      <c r="CM9">
+        <v>0.73473999999999995</v>
+      </c>
+      <c r="CN9">
+        <v>0.76924000000000003</v>
+      </c>
+      <c r="CO9">
+        <v>0.71814</v>
+      </c>
+      <c r="CP9">
+        <v>0.72762000000000004</v>
+      </c>
+      <c r="CQ9">
+        <v>0.71350000000000002</v>
+      </c>
+      <c r="CR9">
+        <v>0.72114</v>
+      </c>
+      <c r="CS9">
+        <v>0.70996000000000004</v>
+      </c>
+      <c r="CT9">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="CU9">
+        <v>0.71672000000000002</v>
+      </c>
+      <c r="CV9">
+        <v>0.75461999999999996</v>
+      </c>
+      <c r="CW9">
+        <v>0.72877880000000017</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.72802</v>
-      </c>
-      <c r="B3">
-        <v>0.74348000000000003</v>
-      </c>
-      <c r="C3">
-        <v>0.73575000000000002</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.73382000000000003</v>
+      </c>
+      <c r="B10">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="C10">
+        <v>0.76515999999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.71401999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.69864000000000004</v>
+      </c>
+      <c r="F10">
+        <v>0.73265999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.73512</v>
+      </c>
+      <c r="H10">
+        <v>0.70262000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.72196000000000005</v>
+      </c>
+      <c r="J10">
+        <v>0.70472000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.71887999999999996</v>
+      </c>
+      <c r="L10">
+        <v>0.74553999999999998</v>
+      </c>
+      <c r="M10">
+        <v>0.72262000000000004</v>
+      </c>
+      <c r="N10">
+        <v>0.70233999999999996</v>
+      </c>
+      <c r="O10">
+        <v>0.72423999999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.73443999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.70872000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.73211999999999999</v>
+      </c>
+      <c r="S10">
+        <v>0.73521999999999998</v>
+      </c>
+      <c r="T10">
+        <v>0.70691999999999999</v>
+      </c>
+      <c r="U10">
+        <v>0.68422000000000005</v>
+      </c>
+      <c r="V10">
+        <v>0.70984000000000003</v>
+      </c>
+      <c r="W10">
+        <v>0.71157999999999999</v>
+      </c>
+      <c r="X10">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="Y10">
+        <v>0.72407999999999995</v>
+      </c>
+      <c r="Z10">
+        <v>0.74221999999999999</v>
+      </c>
+      <c r="AA10">
+        <v>0.70084000000000002</v>
+      </c>
+      <c r="AB10">
+        <v>0.73060000000000003</v>
+      </c>
+      <c r="AC10">
+        <v>0.74263999999999997</v>
+      </c>
+      <c r="AD10">
+        <v>0.72101999999999999</v>
+      </c>
+      <c r="AE10">
+        <v>0.77195999999999998</v>
+      </c>
+      <c r="AF10">
+        <v>0.7177</v>
+      </c>
+      <c r="AG10">
+        <v>0.74363999999999997</v>
+      </c>
+      <c r="AH10">
+        <v>0.71242000000000005</v>
+      </c>
+      <c r="AI10">
+        <v>0.752</v>
+      </c>
+      <c r="AJ10">
+        <v>0.74056</v>
+      </c>
+      <c r="AK10">
+        <v>0.70572000000000001</v>
+      </c>
+      <c r="AL10">
+        <v>0.73243999999999998</v>
+      </c>
+      <c r="AM10">
+        <v>0.71455999999999997</v>
+      </c>
+      <c r="AN10">
+        <v>0.70254000000000005</v>
+      </c>
+      <c r="AO10">
+        <v>0.72594000000000003</v>
+      </c>
+      <c r="AP10">
+        <v>0.7117</v>
+      </c>
+      <c r="AQ10">
+        <v>0.72977999999999998</v>
+      </c>
+      <c r="AR10">
+        <v>0.70320000000000005</v>
+      </c>
+      <c r="AS10">
+        <v>0.69042000000000003</v>
+      </c>
+      <c r="AT10">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AU10">
+        <v>0.74063999999999997</v>
+      </c>
+      <c r="AV10">
+        <v>0.71843999999999997</v>
+      </c>
+      <c r="AW10">
+        <v>0.71763999999999994</v>
+      </c>
+      <c r="AX10">
+        <v>0.71511999999999998</v>
+      </c>
+      <c r="AY10">
+        <v>0.73002</v>
+      </c>
+      <c r="AZ10">
+        <v>0.72216000000000002</v>
+      </c>
+      <c r="BA10">
+        <v>0.71765999999999996</v>
+      </c>
+      <c r="BB10">
+        <v>0.72796000000000005</v>
+      </c>
+      <c r="BC10">
+        <v>0.74024000000000001</v>
+      </c>
+      <c r="BD10">
+        <v>0.73717999999999995</v>
+      </c>
+      <c r="BE10">
+        <v>0.74714000000000003</v>
+      </c>
+      <c r="BF10">
+        <v>0.69711999999999996</v>
+      </c>
+      <c r="BG10">
+        <v>0.75941999999999998</v>
+      </c>
+      <c r="BH10">
+        <v>0.72133999999999998</v>
+      </c>
+      <c r="BI10">
+        <v>0.72189999999999999</v>
+      </c>
+      <c r="BJ10">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="BK10">
+        <v>0.75258000000000003</v>
+      </c>
+      <c r="BL10">
+        <v>0.71026</v>
+      </c>
+      <c r="BM10">
+        <v>0.71197999999999995</v>
+      </c>
+      <c r="BN10">
+        <v>0.72928000000000004</v>
+      </c>
+      <c r="BO10">
+        <v>0.68784000000000001</v>
+      </c>
+      <c r="BP10">
+        <v>0.69655999999999996</v>
+      </c>
+      <c r="BQ10">
+        <v>0.73551999999999995</v>
+      </c>
+      <c r="BR10">
+        <v>0.68755999999999995</v>
+      </c>
+      <c r="BS10">
+        <v>0.76681999999999995</v>
+      </c>
+      <c r="BT10">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="BU10">
+        <v>0.71774000000000004</v>
+      </c>
+      <c r="BV10">
+        <v>0.73748000000000002</v>
+      </c>
+      <c r="BW10">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="BX10">
+        <v>0.71679999999999999</v>
+      </c>
+      <c r="BY10">
+        <v>0.72489999999999999</v>
+      </c>
+      <c r="BZ10">
+        <v>0.75585999999999998</v>
+      </c>
+      <c r="CA10">
+        <v>0.72485999999999995</v>
+      </c>
+      <c r="CB10">
+        <v>0.71672000000000002</v>
+      </c>
+      <c r="CC10">
+        <v>0.71165999999999996</v>
+      </c>
+      <c r="CD10">
+        <v>0.72004000000000001</v>
+      </c>
+      <c r="CE10">
+        <v>0.74456</v>
+      </c>
+      <c r="CF10">
+        <v>0.71704000000000001</v>
+      </c>
+      <c r="CG10">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="CH10">
+        <v>0.71577999999999997</v>
+      </c>
+      <c r="CI10">
+        <v>0.70906000000000002</v>
+      </c>
+      <c r="CJ10">
+        <v>0.72872000000000003</v>
+      </c>
+      <c r="CK10">
+        <v>0.73109999999999997</v>
+      </c>
+      <c r="CL10">
+        <v>0.75163999999999997</v>
+      </c>
+      <c r="CM10">
+        <v>0.75485999999999998</v>
+      </c>
+      <c r="CN10">
+        <v>0.71050000000000002</v>
+      </c>
+      <c r="CO10">
+        <v>0.74187999999999998</v>
+      </c>
+      <c r="CP10">
+        <v>0.72077999999999998</v>
+      </c>
+      <c r="CQ10">
+        <v>0.74868000000000001</v>
+      </c>
+      <c r="CR10">
+        <v>0.72748000000000002</v>
+      </c>
+      <c r="CS10">
+        <v>0.72641999999999995</v>
+      </c>
+      <c r="CT10">
+        <v>0.72282000000000002</v>
+      </c>
+      <c r="CU10">
+        <v>0.74882000000000004</v>
+      </c>
+      <c r="CV10">
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="CW10">
+        <v>0.72553960000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.70294000000000001</v>
-      </c>
-      <c r="B4">
-        <v>0.74578</v>
-      </c>
-      <c r="C4">
-        <v>0.72436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.75366</v>
-      </c>
-      <c r="B5">
-        <v>0.74097999999999997</v>
-      </c>
-      <c r="C5">
-        <v>0.74731999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.72507999999999995</v>
-      </c>
-      <c r="B6">
-        <v>0.73207999999999995</v>
-      </c>
-      <c r="C6">
-        <v>0.72858000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.74348000000000003</v>
-      </c>
-      <c r="B7">
-        <v>0.72953999999999997</v>
-      </c>
-      <c r="C7">
-        <v>0.73651</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.74472000000000005</v>
-      </c>
-      <c r="B8">
-        <v>0.72804000000000002</v>
-      </c>
-      <c r="C8">
-        <v>0.73638000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.70257999999999998</v>
-      </c>
-      <c r="B9">
-        <v>0.75827999999999995</v>
-      </c>
-      <c r="C9">
-        <v>0.73042999999999991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.66979999999999995</v>
-      </c>
-      <c r="B10">
-        <v>0.74107999999999996</v>
-      </c>
-      <c r="C10">
-        <v>0.70543999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.73265999999999998</v>
+        <v>0.72702</v>
       </c>
       <c r="B11">
-        <v>0.75172000000000005</v>
+        <v>0.76566000000000001</v>
       </c>
       <c r="C11">
-        <v>0.74219000000000002</v>
+        <v>0.74904000000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.74014000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.72894000000000003</v>
+      </c>
+      <c r="F11">
+        <v>0.72130000000000005</v>
+      </c>
+      <c r="G11">
+        <v>0.75334000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.73055999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.70916000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.71343999999999996</v>
+      </c>
+      <c r="K11">
+        <v>0.71414</v>
+      </c>
+      <c r="L11">
+        <v>0.72136</v>
+      </c>
+      <c r="M11">
+        <v>0.71716000000000002</v>
+      </c>
+      <c r="N11">
+        <v>0.71111999999999997</v>
+      </c>
+      <c r="O11">
+        <v>0.73482000000000003</v>
+      </c>
+      <c r="P11">
+        <v>0.74051999999999996</v>
+      </c>
+      <c r="Q11">
+        <v>0.74082000000000003</v>
+      </c>
+      <c r="R11">
+        <v>0.75151999999999997</v>
+      </c>
+      <c r="S11">
+        <v>0.72592000000000001</v>
+      </c>
+      <c r="T11">
+        <v>0.71686000000000005</v>
+      </c>
+      <c r="U11">
+        <v>0.70877999999999997</v>
+      </c>
+      <c r="V11">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="W11">
+        <v>0.70804</v>
+      </c>
+      <c r="X11">
+        <v>0.72172000000000003</v>
+      </c>
+      <c r="Y11">
+        <v>0.76307999999999998</v>
+      </c>
+      <c r="Z11">
+        <v>0.74739999999999995</v>
+      </c>
+      <c r="AA11">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="AB11">
+        <v>0.72872000000000003</v>
+      </c>
+      <c r="AC11">
+        <v>0.72474000000000005</v>
+      </c>
+      <c r="AD11">
+        <v>0.72292000000000001</v>
+      </c>
+      <c r="AE11">
+        <v>0.75461999999999996</v>
+      </c>
+      <c r="AF11">
+        <v>0.71231999999999995</v>
+      </c>
+      <c r="AG11">
+        <v>0.71774000000000004</v>
+      </c>
+      <c r="AH11">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="AI11">
+        <v>0.70196000000000003</v>
+      </c>
+      <c r="AJ11">
+        <v>0.70606000000000002</v>
+      </c>
+      <c r="AK11">
+        <v>0.73285999999999996</v>
+      </c>
+      <c r="AL11">
+        <v>0.71955999999999998</v>
+      </c>
+      <c r="AM11">
+        <v>0.70838000000000001</v>
+      </c>
+      <c r="AN11">
+        <v>0.68676000000000004</v>
+      </c>
+      <c r="AO11">
+        <v>0.71826000000000001</v>
+      </c>
+      <c r="AP11">
+        <v>0.72984000000000004</v>
+      </c>
+      <c r="AQ11">
+        <v>0.72421999999999997</v>
+      </c>
+      <c r="AR11">
+        <v>0.73797999999999997</v>
+      </c>
+      <c r="AS11">
+        <v>0.69940000000000002</v>
+      </c>
+      <c r="AT11">
+        <v>0.71711999999999998</v>
+      </c>
+      <c r="AU11">
+        <v>0.77278000000000002</v>
+      </c>
+      <c r="AV11">
+        <v>0.73504000000000003</v>
+      </c>
+      <c r="AW11">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="AX11">
+        <v>0.70186000000000004</v>
+      </c>
+      <c r="AY11">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="AZ11">
+        <v>0.73687999999999998</v>
+      </c>
+      <c r="BA11">
+        <v>0.70254000000000005</v>
+      </c>
+      <c r="BB11">
+        <v>0.71096000000000004</v>
+      </c>
+      <c r="BC11">
+        <v>0.71772000000000002</v>
+      </c>
+      <c r="BD11">
+        <v>0.71984000000000004</v>
+      </c>
+      <c r="BE11">
+        <v>0.72874000000000005</v>
+      </c>
+      <c r="BF11">
+        <v>0.73507999999999996</v>
+      </c>
+      <c r="BG11">
+        <v>0.74470000000000003</v>
+      </c>
+      <c r="BH11">
+        <v>0.71404000000000001</v>
+      </c>
+      <c r="BI11">
+        <v>0.75075999999999998</v>
+      </c>
+      <c r="BJ11">
+        <v>0.71833999999999998</v>
+      </c>
+      <c r="BK11">
+        <v>0.72094000000000003</v>
+      </c>
+      <c r="BL11">
+        <v>0.72753999999999996</v>
+      </c>
+      <c r="BM11">
+        <v>0.72109999999999996</v>
+      </c>
+      <c r="BN11">
+        <v>0.71548</v>
+      </c>
+      <c r="BO11">
+        <v>0.73395999999999995</v>
+      </c>
+      <c r="BP11">
+        <v>0.71877999999999997</v>
+      </c>
+      <c r="BQ11">
+        <v>0.71079999999999999</v>
+      </c>
+      <c r="BR11">
+        <v>0.70396000000000003</v>
+      </c>
+      <c r="BS11">
+        <v>0.71897999999999995</v>
+      </c>
+      <c r="BT11">
+        <v>0.72762000000000004</v>
+      </c>
+      <c r="BU11">
+        <v>0.72216000000000002</v>
+      </c>
+      <c r="BV11">
+        <v>0.71882000000000001</v>
+      </c>
+      <c r="BW11">
+        <v>0.73628000000000005</v>
+      </c>
+      <c r="BX11">
+        <v>0.74705999999999995</v>
+      </c>
+      <c r="BY11">
+        <v>0.74919999999999998</v>
+      </c>
+      <c r="BZ11">
+        <v>0.7198</v>
+      </c>
+      <c r="CA11">
+        <v>0.71106000000000003</v>
+      </c>
+      <c r="CB11">
+        <v>0.71819999999999995</v>
+      </c>
+      <c r="CC11">
+        <v>0.70998000000000006</v>
+      </c>
+      <c r="CD11">
+        <v>0.73073999999999995</v>
+      </c>
+      <c r="CE11">
+        <v>0.74646000000000001</v>
+      </c>
+      <c r="CF11">
+        <v>0.73185999999999996</v>
+      </c>
+      <c r="CG11">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="CH11">
+        <v>0.71408000000000005</v>
+      </c>
+      <c r="CI11">
+        <v>0.72162000000000004</v>
+      </c>
+      <c r="CJ11">
+        <v>0.71120000000000005</v>
+      </c>
+      <c r="CK11">
+        <v>0.73306000000000004</v>
+      </c>
+      <c r="CL11">
+        <v>0.74646000000000001</v>
+      </c>
+      <c r="CM11">
+        <v>0.71486000000000005</v>
+      </c>
+      <c r="CN11">
+        <v>0.74826999999999999</v>
+      </c>
+      <c r="CO11">
+        <v>0.73053999999999997</v>
+      </c>
+      <c r="CP11">
+        <v>0.72106000000000003</v>
+      </c>
+      <c r="CQ11">
+        <v>0.71894000000000002</v>
+      </c>
+      <c r="CR11">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="CS11">
+        <v>0.72185999999999995</v>
+      </c>
+      <c r="CT11">
+        <v>0.76373999999999997</v>
+      </c>
+      <c r="CU11">
+        <v>0.72648000000000001</v>
+      </c>
+      <c r="CV11">
+        <v>0.77212000000000003</v>
+      </c>
+      <c r="CW11">
+        <v>0.72657070000000001</v>
       </c>
     </row>
   </sheetData>
